--- a/src/main/resources/file/sampleUpload.xlsx
+++ b/src/main/resources/file/sampleUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/company/backoffice/tis-api/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freelife/company/backoffice/tis-api/src/main/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0905695-B954-7845-A49D-81A0908B634E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10B4A99-95B7-194E-A76C-3F97D40F5310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36140" yWindow="5040" windowWidth="35720" windowHeight="25520" xr2:uid="{2AD59B47-EA87-E647-B100-118A2D3F07F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,34 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.123.123.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999.999.999.999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9.9.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +336,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,22 +656,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5258AA1D-AB2B-9E4C-86DA-73136A150989}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,20 +694,23 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -697,20 +732,23 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1">
         <v>1.1234</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>43748</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -732,18 +770,21 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>43748</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -765,18 +806,21 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>43748</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -798,18 +842,21 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>43748</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -832,17 +879,20 @@
         <v>10</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>43748</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -864,18 +914,19 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>43748</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,18 +948,21 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>43748</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,18 +984,21 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>43748</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -964,17 +1021,20 @@
         <v>10</v>
       </c>
       <c r="H10" s="1">
+        <v>123.123</v>
+      </c>
+      <c r="I10" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>43748</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -997,17 +1057,20 @@
         <v>10</v>
       </c>
       <c r="H11" s="1">
+        <v>123123123123</v>
+      </c>
+      <c r="I11" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>43748</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1030,15 +1093,18 @@
         <v>10</v>
       </c>
       <c r="H12" s="1">
+        <v>255</v>
+      </c>
+      <c r="I12" s="1">
         <v>1234.1234549999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>43748</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>43534.271180555559</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
